--- a/xlsx/社会主义_intext.xlsx
+++ b/xlsx/社会主义_intext.xlsx
@@ -29,7 +29,7 @@
     <t>勞工</t>
   </si>
   <si>
-    <t>政策_政策_美國_社会主义</t>
+    <t>体育运动_体育运动_竞争_社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E9%81%8B%E5%8B%95</t>
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
